--- a/data/trans_bre/P2A_ner_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2A_ner_R-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>8.662633835015422</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-0.67991926915495</v>
+        <v>-0.6799192691549518</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7954479791759647</v>
@@ -649,7 +649,7 @@
         <v>1.156473740475755</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.2127789048360548</v>
+        <v>-0.2127789048360553</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.7318307500521275</v>
+        <v>-0.5809229876176142</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.6458853497168406</v>
+        <v>-0.6146750851276839</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.941116582215945</v>
+        <v>2.97373049474788</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.110571638612172</v>
+        <v>-3.275585347399926</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.222048066071392</v>
+        <v>-0.1933501453524117</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1926994148694154</v>
+        <v>-0.2007267145248406</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2618732223721078</v>
+        <v>0.2854950334638636</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.6674577809186681</v>
+        <v>-0.6617929975803533</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.899648634799038</v>
+        <v>6.766304798524407</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.634041157015807</v>
+        <v>6.717747372961479</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13.66985206312496</v>
+        <v>13.95828811306481</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.43737597524943</v>
+        <v>1.23823439708951</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3.598246696767021</v>
+        <v>3.483439643547681</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.914770507108828</v>
+        <v>3.19459968829058</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.528080957234681</v>
+        <v>2.704456290585823</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.7965230106421735</v>
+        <v>0.6490154481681734</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.7669754095878477</v>
+        <v>-0.8236532294324089</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3095720964318779</v>
+        <v>0.1872220167325183</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.736064923475184</v>
+        <v>3.636258762776824</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.064202948048318</v>
+        <v>0.9989102599384604</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1540050779914413</v>
+        <v>-0.1759730489970271</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.001481705247552276</v>
+        <v>-0.03320481826330867</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7203611532816296</v>
+        <v>0.6852393882214667</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2247056909077171</v>
+        <v>0.2229991265661013</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.482574452612622</v>
+        <v>4.779653211784769</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.863464357559196</v>
+        <v>5.574231523690536</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10.01146811651303</v>
+        <v>9.855745489556421</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.548575943373196</v>
+        <v>5.611873581585165</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.723783360122333</v>
+        <v>1.805496099500268</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.101704663412387</v>
+        <v>2.841925159306812</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>4.623819540692591</v>
+        <v>4.473627494448347</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.751780574735711</v>
+        <v>3.700812602981695</v>
       </c>
     </row>
     <row r="10">
@@ -860,26 +860,26 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.6049765726963173</v>
+        <v>-0.3373355983879592</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.454690393954867</v>
+        <v>-2.599939867861361</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.782128832525371</v>
+        <v>4.093225046989812</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.298171671661067</v>
+        <v>-1.067433014218932</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>-0.7520394981032603</v>
+        <v>-0.7930151412904198</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1.040281835082337</v>
+        <v>1.07553339663221</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2865089973258707</v>
+        <v>-0.3033036789691485</v>
       </c>
     </row>
     <row r="12">
@@ -890,26 +890,26 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.748825316825473</v>
+        <v>1.783766554740214</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.628787736563023</v>
+        <v>1.669977300885762</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.93355274820616</v>
+        <v>10.76561541115916</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.615300962606432</v>
+        <v>4.524056806253191</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>1.490623602907463</v>
+        <v>1.634839684639962</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>12.70570250999057</v>
+        <v>11.28944483074343</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>2.451641208459692</v>
+        <v>2.200524241534015</v>
       </c>
     </row>
     <row r="13">
@@ -933,7 +933,7 @@
         <v>3.829082673123574</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.8805640688403289</v>
+        <v>-0.8805640688403282</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.08330521578096</v>
@@ -945,7 +945,7 @@
         <v>0.8182787387596042</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.1677313947639934</v>
+        <v>-0.1677313947639933</v>
       </c>
     </row>
     <row r="14">
@@ -956,28 +956,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.2648927689290898</v>
+        <v>-0.3025423222634446</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.187340194352815</v>
+        <v>3.183167883987848</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5149142794243314</v>
+        <v>-0.0231701802106771</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-5.03137000082139</v>
+        <v>-4.875292546478105</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2347689678233319</v>
+        <v>-0.1949745495133395</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6761778881916795</v>
+        <v>0.6284348365964569</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0129558219749128</v>
+        <v>-0.06872343913315504</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6045533070426947</v>
+        <v>-0.6128096231795035</v>
       </c>
     </row>
     <row r="15">
@@ -988,28 +988,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.557970532094726</v>
+        <v>4.627700213267229</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9.733154726423219</v>
+        <v>9.491556028068601</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.474660105142723</v>
+        <v>7.311962999041474</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.224887402410902</v>
+        <v>2.047218592801801</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4.428773691569766</v>
+        <v>5.179118825023063</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>7.510110873813613</v>
+        <v>6.297591451204273</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.324630424805035</v>
+        <v>2.018382872929437</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6698640447898249</v>
+        <v>0.6160572134476184</v>
       </c>
     </row>
     <row r="16">
@@ -1056,28 +1056,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.276550442720495</v>
+        <v>-1.071032856797454</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.493943339577313</v>
+        <v>-2.240730843375416</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2520987262608589</v>
+        <v>-0.01337332875802784</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.1670307308100956</v>
+        <v>-0.06148724948724978</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2941910309483848</v>
+        <v>-0.3219699892614583</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1537746836347022</v>
+        <v>-0.2049277113717811</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.008323109732334036</v>
+        <v>-0.03406466989281943</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.3059060599469921</v>
+        <v>-0.231407095422553</v>
       </c>
     </row>
     <row r="18">
@@ -1088,28 +1088,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.948562147967252</v>
+        <v>7.607265734370452</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>11.00771297364349</v>
+        <v>10.43802519452624</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.70938428459869</v>
+        <v>12.16858107708525</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.610846758762476</v>
+        <v>3.710846299001688</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3.692048898089622</v>
+        <v>3.215515038723341</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.562421802125095</v>
+        <v>1.494251683572168</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.453208465869431</v>
+        <v>2.346130675128536</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>10.13442657810439</v>
+        <v>9.31429712720638</v>
       </c>
     </row>
     <row r="19">
@@ -1133,7 +1133,7 @@
         <v>7.670813312093655</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.09991950941205738</v>
+        <v>0.09991950941205668</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>1.518646198245511</v>
@@ -1145,7 +1145,7 @@
         <v>1.742463638081024</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.02669661402852504</v>
+        <v>0.02669661402852486</v>
       </c>
     </row>
     <row r="20">
@@ -1156,26 +1156,26 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.2917666659459918</v>
+        <v>-0.07728104575343263</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.287606454072742</v>
+        <v>1.149167325419199</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3.462295876322175</v>
+        <v>3.561216938925214</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-2.624263120641263</v>
+        <v>-2.812369124003023</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3057813668335712</v>
+        <v>-0.2229984191696989</v>
       </c>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>0.4689016303883339</v>
+        <v>0.4703415023684537</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5041179768146614</v>
+        <v>-0.5066954033040922</v>
       </c>
     </row>
     <row r="21">
@@ -1186,26 +1186,26 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>5.072147809694943</v>
+        <v>4.850090508838988</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>5.957451209023191</v>
+        <v>6.06450756936916</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>12.44878120849187</v>
+        <v>12.60166149557647</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>2.520354993106249</v>
+        <v>2.487535791656409</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>10.45335347381646</v>
+        <v>10.19070274462666</v>
       </c>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>4.492137739607701</v>
+        <v>4.826747513225499</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.00703328952536</v>
+        <v>1.000962550971777</v>
       </c>
     </row>
     <row r="22">
@@ -1252,28 +1252,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.001902214228821202</v>
+        <v>-0.07915624912956837</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.173901977614692</v>
+        <v>-2.028027161988912</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.940066646495789</v>
+        <v>3.948116677640321</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.159743203320325</v>
+        <v>-0.7151488757551629</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.04527265193469215</v>
+        <v>-0.1213506422304039</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.6059559728268196</v>
+        <v>-0.5741842495679061</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7030502347027889</v>
+        <v>0.6948813117344869</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.1667508810405396</v>
+        <v>-0.1376005409560793</v>
       </c>
     </row>
     <row r="24">
@@ -1284,28 +1284,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.655067833129161</v>
+        <v>3.426292121930719</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.374354986351034</v>
+        <v>1.245854375729221</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.96799753966434</v>
+        <v>9.91667923217487</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.869942396181048</v>
+        <v>4.115219477736658</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>3.560607234817133</v>
+        <v>2.825277758940517</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6956281495096153</v>
+        <v>0.6980159169844261</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>3.349249854947</v>
+        <v>3.134586133556517</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.073335835263834</v>
+        <v>1.089808222019323</v>
       </c>
     </row>
     <row r="25">
@@ -1352,28 +1352,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.9420887827270228</v>
+        <v>-0.9527701757146768</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-1.320380725478872</v>
+        <v>-1.10319152574813</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3.190923664555735</v>
+        <v>3.563281080302689</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.0322451058198569</v>
+        <v>0.1108774322390025</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1777030687568159</v>
+        <v>-0.1981835670603695</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.362750395250459</v>
+        <v>-0.2833521644385701</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5581829017036152</v>
+        <v>0.5940704891917492</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.003341845093564594</v>
+        <v>0.002619016512323959</v>
       </c>
     </row>
     <row r="27">
@@ -1384,28 +1384,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>3.730605842931641</v>
+        <v>3.725194641229849</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>2.354126657026337</v>
+        <v>2.558967597543174</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>8.789733253023698</v>
+        <v>8.843768928498276</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3.137242077591928</v>
+        <v>3.338864769624976</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.157431960403192</v>
+        <v>1.188896656350771</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.13576000677687</v>
+        <v>1.264032330801231</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>2.400932736917906</v>
+        <v>2.462240080203837</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.855669817294089</v>
+        <v>1.903954054870533</v>
       </c>
     </row>
     <row r="28">
@@ -1429,7 +1429,7 @@
         <v>6.512788475394355</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1.351173749847249</v>
+        <v>1.351173749847247</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6525473946274547</v>
@@ -1441,7 +1441,7 @@
         <v>1.44324500065332</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.3907037701427299</v>
+        <v>0.3907037701427295</v>
       </c>
     </row>
     <row r="29">
@@ -1452,28 +1452,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.9177324398196167</v>
+        <v>0.882364268358772</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.8996664222852693</v>
+        <v>0.9094910672008575</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5.14197188369544</v>
+        <v>5.158177966755315</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.4596355156337523</v>
+        <v>0.430576288781885</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.2848958823470389</v>
+        <v>0.28161663649292</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2621334046421169</v>
+        <v>0.24703224274606</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9753069750250133</v>
+        <v>1.024568209349105</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.1123329604098811</v>
+        <v>0.1022229245985365</v>
       </c>
     </row>
     <row r="30">
@@ -1484,28 +1484,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.757062442776589</v>
+        <v>2.768021211895434</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.794991438384712</v>
+        <v>2.756280328844731</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.915562571946584</v>
+        <v>7.904016835209964</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.235462583439435</v>
+        <v>2.235165824473645</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1.155446451255065</v>
+        <v>1.143049023144366</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1.067508613936748</v>
+        <v>1.042768932685984</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1.930899995968225</v>
+        <v>1.982742389037924</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.7431801868351982</v>
+        <v>0.7515666328099027</v>
       </c>
     </row>
     <row r="31">
